--- a/Digital loggbok/Loggbok 2.1/debug/statistik/2018September.xlsx
+++ b/Digital loggbok/Loggbok 2.1/debug/statistik/2018September.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14180" windowWidth="25600" xWindow="0" yWindow="460"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>Datum</t>
   </si>
@@ -58,7 +59,7 @@
     <t>Glömda utcheckningar</t>
   </si>
   <si>
-    <t>03/09</t>
+    <t>22/09</t>
   </si>
   <si>
     <t>0</t>
@@ -67,34 +68,118 @@
     <t>0:00:00</t>
   </si>
   <si>
-    <t>22/09</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0:12:43</t>
+  </si>
+  <si>
+    <t>0:06:23</t>
+  </si>
+  <si>
+    <t>0:06:21</t>
+  </si>
+  <si>
+    <t>0:00:02</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0:13:51</t>
+  </si>
+  <si>
+    <t>0:06:55</t>
+  </si>
+  <si>
+    <t>0:26:34</t>
+  </si>
+  <si>
+    <t>0:13:18</t>
+  </si>
+  <si>
+    <t>0:00:17</t>
+  </si>
+  <si>
+    <t>0:06:38</t>
+  </si>
+  <si>
+    <t>0:06:39</t>
+  </si>
+  <si>
+    <t>0:00:16</t>
+  </si>
+  <si>
+    <t>0:16:13</t>
+  </si>
+  <si>
+    <t>0:08:06</t>
+  </si>
+  <si>
+    <t>0:42:47</t>
+  </si>
+  <si>
+    <t>0:21:25</t>
+  </si>
+  <si>
+    <t>0:00:43</t>
+  </si>
+  <si>
+    <t>0:07:07</t>
+  </si>
+  <si>
+    <t>0:07:08</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>0:0:0</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3:14:33.592054</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1:37:16</t>
-  </si>
-  <si>
-    <t>0:23:19</t>
-  </si>
-  <si>
-    <t>0:11:39</t>
+    <t>0:10:34</t>
+  </si>
+  <si>
+    <t>0:53:22</t>
+  </si>
+  <si>
+    <t>0:32:00</t>
+  </si>
+  <si>
+    <t>0:03:40</t>
+  </si>
+  <si>
+    <t>0:08:53</t>
+  </si>
+  <si>
+    <t>0:10:40</t>
+  </si>
+  <si>
+    <t>0:04:29</t>
+  </si>
+  <si>
+    <t>0:10:52</t>
+  </si>
+  <si>
+    <t>1:04:15</t>
+  </si>
+  <si>
+    <t>0:42:53</t>
+  </si>
+  <si>
+    <t>0:04:46</t>
+  </si>
+  <si>
+    <t>0:10:42</t>
+  </si>
+  <si>
+    <t>0:14:17</t>
+  </si>
+  <si>
+    <t>0:04:23</t>
   </si>
 </sst>
 </file>
@@ -135,7 +220,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -430,13 +515,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A5:XFD8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
@@ -505,25 +590,25 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -531,43 +616,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
         <v>16</v>
       </c>
       <c r="N3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -575,43 +660,43 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -619,40 +704,40 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
         <v>15</v>
@@ -666,7 +751,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -675,31 +760,31 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -710,7 +795,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -719,31 +804,31 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -751,218 +836,86 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="N8" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="M9" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="N9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" t="s">
         <v>15</v>
       </c>
     </row>
